--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>SlNo</t>
   </si>
@@ -39,11 +39,14 @@
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
+  <si>
+    <t>arr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -256,6 +259,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,19 +543,19 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -560,7 +564,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,994 +581,1000 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>44351</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -1588,16 +1598,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1616,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1623,994 +1633,994 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>SlNo</t>
   </si>
@@ -40,7 +40,43 @@
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
   <si>
-    <t>arr</t>
+    <t xml:space="preserve">Array list </t>
+  </si>
+  <si>
+    <t>Array list and iterator  - training session</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>Overview of BPM - Training session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array list </t>
+  </si>
+  <si>
+    <t>practice on array list and iterator concepts</t>
+  </si>
+  <si>
+    <t>string methods</t>
+  </si>
+  <si>
+    <t>practice on string methods like split and so on</t>
+  </si>
+  <si>
+    <t>BPM exercise - created BPM wrokflow for e commerce</t>
+  </si>
+  <si>
+    <t>Arraylist Exercise</t>
+  </si>
+  <si>
+    <t>woked on task for 04-06-2021</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>gone through all collections concepts</t>
   </si>
 </sst>
 </file>
@@ -250,6 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,7 +296,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +579,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,13 +592,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -585,56 +621,120 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>44351</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44351</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44351</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44351</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44352</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44352</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44352</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -1608,13 +1708,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>SlNo</t>
   </si>
@@ -77,6 +77,36 @@
   </si>
   <si>
     <t>gone through all collections concepts</t>
+  </si>
+  <si>
+    <t>BPMN overview</t>
+  </si>
+  <si>
+    <t>Bpm training session -reviewed bpm exericse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashmap </t>
+  </si>
+  <si>
+    <t>Hash map and hashtable - java traing session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPMN </t>
+  </si>
+  <si>
+    <t>cloud kitchen workflow design</t>
+  </si>
+  <si>
+    <t>Practise on today learned concept</t>
+  </si>
+  <si>
+    <t>java EX</t>
+  </si>
+  <si>
+    <t>student program using hashmap concept</t>
+  </si>
+  <si>
+    <t>Previous java exercise changes(arraylist)</t>
   </si>
 </sst>
 </file>
@@ -576,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F145"/>
+  <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -699,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -733,50 +763,110 @@
         <v>18</v>
       </c>
       <c r="F10" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44354</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1676,10 +1766,25 @@
     </row>
     <row r="145" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
+      <c r="C145" s="1"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>SlNo</t>
   </si>
@@ -97,9 +97,6 @@
     <t>cloud kitchen workflow design</t>
   </si>
   <si>
-    <t>Practise on today learned concept</t>
-  </si>
-  <si>
     <t>java EX</t>
   </si>
   <si>
@@ -107,6 +104,24 @@
   </si>
   <si>
     <t>Previous java exercise changes(arraylist)</t>
+  </si>
+  <si>
+    <t>Hash table</t>
+  </si>
+  <si>
+    <t>hash table and ide overview - training session</t>
+  </si>
+  <si>
+    <t>hash map program</t>
+  </si>
+  <si>
+    <t>java ex</t>
+  </si>
+  <si>
+    <t>Practice on today learned concept</t>
+  </si>
+  <si>
+    <t>Practice on hash table</t>
   </si>
 </sst>
 </file>
@@ -609,7 +624,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -842,10 +857,10 @@
         <v>44354</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="3">
         <v>2.5</v>
@@ -859,35 +874,65 @@
         <v>44354</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44355</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>SlNo</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>Practice on hash table</t>
+  </si>
+  <si>
+    <t>java session</t>
+  </si>
+  <si>
+    <t>java concepts revised, html and css overview</t>
+  </si>
+  <si>
+    <t>add update search student details using hash table</t>
+  </si>
+  <si>
+    <t>HTML and CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating webpages using html and css </t>
   </si>
 </sst>
 </file>
@@ -624,7 +639,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,25 +950,55 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44356</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -137,6 +137,27 @@
   </si>
   <si>
     <t xml:space="preserve">creating webpages using html and css </t>
+  </si>
+  <si>
+    <t>JBPM</t>
+  </si>
+  <si>
+    <t>Training session jbpm</t>
+  </si>
+  <si>
+    <t>jsp &amp; servlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java training session </t>
+  </si>
+  <si>
+    <t>web page design</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learing core java concepts (previous class concepts) </t>
   </si>
 </sst>
 </file>
@@ -188,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -331,11 +352,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -356,6 +388,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,32 +1034,72 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44357</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>SlNo</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t xml:space="preserve">learing core java concepts (previous class concepts) </t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Training session java</t>
+  </si>
+  <si>
+    <t>preparation on collection concepts</t>
+  </si>
+  <si>
+    <t>core java concepts</t>
   </si>
 </sst>
 </file>
@@ -379,6 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,7 +401,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +684,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +697,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -1097,30 +1109,56 @@
       <c r="E26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44358</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44358</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44358</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -1976,13 +2014,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>SlNo</t>
   </si>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>core java concepts</t>
+  </si>
+  <si>
+    <t>assessment preparation</t>
+  </si>
+  <si>
+    <t>Desinging webpages  - Task</t>
+  </si>
+  <si>
+    <t>Core java</t>
+  </si>
+  <si>
+    <t>Java training session</t>
+  </si>
+  <si>
+    <t>jsp setup  in eclipse</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>Learning jsp and servlet basics</t>
+  </si>
+  <si>
+    <t>doing java sample programs</t>
   </si>
 </sst>
 </file>
@@ -683,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,12 +764,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>44351</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -757,12 +777,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>44351</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -774,12 +790,8 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10">
-        <v>44351</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
@@ -792,7 +804,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <v>44352</v>
@@ -808,12 +820,8 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10">
-        <v>44352</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
@@ -825,12 +833,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <v>44352</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
@@ -843,7 +847,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10">
         <v>44354</v>
@@ -859,12 +863,8 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
@@ -876,12 +876,8 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
@@ -893,12 +889,8 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
@@ -910,12 +902,8 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
@@ -927,12 +915,8 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10">
-        <v>44354</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
@@ -945,7 +929,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C17" s="10">
         <v>44355</v>
@@ -961,12 +945,8 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10">
-        <v>44355</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
@@ -978,12 +958,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10">
-        <v>44355</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
@@ -996,7 +972,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20" s="10">
         <v>44356</v>
@@ -1012,12 +988,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10">
-        <v>44356</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1029,12 +1001,8 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10">
-        <v>44356</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1047,7 +1015,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C23" s="10">
         <v>44357</v>
@@ -1063,12 +1031,8 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="10">
-        <v>44357</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1080,12 +1044,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="10">
-        <v>44357</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1097,12 +1057,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="10">
-        <v>44357</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1115,7 +1071,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C27" s="10">
         <v>44358</v>
@@ -1131,12 +1087,8 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="10">
-        <v>44358</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>48</v>
@@ -1146,12 +1098,8 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>26</v>
-      </c>
-      <c r="C29" s="10">
-        <v>44358</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>49</v>
@@ -1161,46 +1109,86 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44359</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="2">
+        <v>9</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44361</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>SlNo</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>doing java sample programs</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>training session</t>
+  </si>
+  <si>
+    <t>working on exception handling concepts</t>
+  </si>
+  <si>
+    <t>html &amp; css practise</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on abstraction </t>
   </si>
 </sst>
 </file>
@@ -707,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,32 +1209,58 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44362</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>SlNo</t>
   </si>
@@ -212,6 +212,24 @@
   </si>
   <si>
     <t xml:space="preserve">working on abstraction </t>
+  </si>
+  <si>
+    <t>Thread concept</t>
+  </si>
+  <si>
+    <t>internal discussion with team on thread concept</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>html &amp; css team training sessions</t>
+  </si>
+  <si>
+    <t>working on basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on hashmap </t>
   </si>
 </sst>
 </file>
@@ -725,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,32 +1281,60 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="2">
+        <v>11</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>SlNo</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t xml:space="preserve">working on hashmap </t>
+  </si>
+  <si>
+    <t>Training session</t>
+  </si>
+  <si>
+    <t>exception handling (Throws, sleep) abstraction and interface</t>
+  </si>
+  <si>
+    <t>Training session JBPM overview</t>
+  </si>
+  <si>
+    <t>jbpm configure</t>
+  </si>
+  <si>
+    <t>Learning basic of jbpm and drools</t>
   </si>
 </sst>
 </file>
@@ -744,7 +759,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,32 +1352,56 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="2">
+        <v>12</v>
+      </c>
+      <c r="C44" s="10">
+        <v>44364</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>SlNo</t>
   </si>
@@ -245,6 +245,36 @@
   </si>
   <si>
     <t>Learning basic of jbpm and drools</t>
+  </si>
+  <si>
+    <t>collection interface training session</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>training session - configuration and overview</t>
+  </si>
+  <si>
+    <t>practice on arraylist and java task</t>
+  </si>
+  <si>
+    <t>camunda basics</t>
+  </si>
+  <si>
+    <t>Camunda</t>
+  </si>
+  <si>
+    <t>Training session (overview, configuration)</t>
+  </si>
+  <si>
+    <t>Overview of rest api, soa, postman,BPMN,tomcat</t>
+  </si>
+  <si>
+    <t>camunda configuration and spring boot setup</t>
+  </si>
+  <si>
+    <t>working on service task to run camunda workflow</t>
   </si>
 </sst>
 </file>
@@ -758,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,67 +1434,123 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="B48" s="2">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44365</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="E50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="2">
+        <v>14</v>
+      </c>
+      <c r="C52" s="10">
+        <v>44366</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="E53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="E54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="2">
+        <v>15</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44367</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>SlNo</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>working on service task to run camunda workflow</t>
+  </si>
+  <si>
+    <t>camunda session on gateways and different tasks</t>
+  </si>
+  <si>
+    <t>Exercise on camunda</t>
   </si>
 </sst>
 </file>
@@ -788,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,18 +1559,32 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="B57" s="2">
+        <v>16</v>
+      </c>
+      <c r="C57" s="10">
+        <v>44368</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="E58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>SlNo</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>Exercise on camunda</t>
+  </si>
+  <si>
+    <t>camunda</t>
+  </si>
+  <si>
+    <t>java on collections and iterator</t>
+  </si>
+  <si>
+    <t>camunda ex on receive task function</t>
+  </si>
+  <si>
+    <t>learing on script task</t>
   </si>
 </sst>
 </file>
@@ -794,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,32 +1599,56 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="B59" s="2">
+        <v>17</v>
+      </c>
+      <c r="C59" s="10">
+        <v>44369</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="E61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="E62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>SlNo</t>
   </si>
@@ -293,6 +293,33 @@
   </si>
   <si>
     <t>learing on script task</t>
+  </si>
+  <si>
+    <t>Tree set java</t>
+  </si>
+  <si>
+    <t>learing in tree set java session</t>
+  </si>
+  <si>
+    <t>subpprocess in camunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subprocess in camunda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task </t>
+  </si>
+  <si>
+    <t>Task in java on tree set</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Task on camunda on subprocess</t>
+  </si>
+  <si>
+    <t>learing in event based and embedded subprocess</t>
   </si>
 </sst>
 </file>
@@ -807,7 +834,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,39 +1678,71 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="2">
+        <v>18</v>
+      </c>
+      <c r="C63" s="10">
+        <v>44370</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="D65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="E67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>SlNo</t>
   </si>
@@ -320,6 +320,30 @@
   </si>
   <si>
     <t>learing in event based and embedded subprocess</t>
+  </si>
+  <si>
+    <t>camunda session</t>
+  </si>
+  <si>
+    <t>parallel process and embedded subprocess</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>camunda ex</t>
+  </si>
+  <si>
+    <t>working on parallel process and embedded subprocess</t>
+  </si>
+  <si>
+    <t>script task</t>
+  </si>
+  <si>
+    <t>working on isssues in script task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java maping concepts </t>
   </si>
 </sst>
 </file>
@@ -834,7 +858,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,39 +1769,71 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="B68" s="2">
+        <v>19</v>
+      </c>
+      <c r="C68" s="10">
+        <v>44371</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="D69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="D70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="D71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="E72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>SlNo</t>
   </si>
@@ -344,6 +344,21 @@
   </si>
   <si>
     <t xml:space="preserve">java maping concepts </t>
+  </si>
+  <si>
+    <t>camunda session on start events</t>
+  </si>
+  <si>
+    <t>java session on map concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camunda ex and event concepts </t>
+  </si>
+  <si>
+    <t>work flow for cloud kitchen</t>
+  </si>
+  <si>
+    <t>document the workflow in video</t>
   </si>
 </sst>
 </file>
@@ -857,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,46 +1851,84 @@
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="1"/>
+      <c r="B73" s="2">
+        <v>20</v>
+      </c>
+      <c r="C73" s="10">
+        <v>44372</v>
+      </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="E73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="E74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="E75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="2">
+        <v>21</v>
+      </c>
+      <c r="C76" s="10">
+        <v>44373</v>
+      </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="E76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="B77" s="2">
+        <v>22</v>
+      </c>
+      <c r="C77" s="10">
+        <v>44374</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F77" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="E78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>SlNo</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>document the workflow in video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camunda task issue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recordings </t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,32 +1937,51 @@
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="B79" s="2">
+        <v>23</v>
+      </c>
+      <c r="C79" s="10">
+        <v>44375</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="E80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
+      <c r="E81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
+      <c r="E82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>SlNo</t>
   </si>
@@ -365,6 +365,27 @@
   </si>
   <si>
     <t xml:space="preserve">recordings </t>
+  </si>
+  <si>
+    <t>camunda  session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rest api </t>
+  </si>
+  <si>
+    <t>jsp and servlet</t>
+  </si>
+  <si>
+    <t>calling variable from one instance to another</t>
+  </si>
+  <si>
+    <t>calling variable from one work flow to another</t>
+  </si>
+  <si>
+    <t>camunda doubt session with team</t>
+  </si>
+  <si>
+    <t>sql concepts</t>
   </si>
 </sst>
 </file>
@@ -879,7 +900,7 @@
   <dimension ref="B1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,46 +2005,80 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
+      <c r="B83" s="2">
+        <v>24</v>
+      </c>
+      <c r="C83" s="10">
+        <v>44376</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
+      <c r="E86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
+      <c r="E87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
+      <c r="E88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>SlNo</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>sql concepts</t>
+  </si>
+  <si>
+    <t>jsp servlet, jdbc connectivity</t>
+  </si>
+  <si>
+    <t>java oracle jadc coneectivity</t>
+  </si>
+  <si>
+    <t>camunda discussion with team</t>
   </si>
 </sst>
 </file>
@@ -899,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,39 +2090,65 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
+      <c r="B89" s="2">
+        <v>25</v>
+      </c>
+      <c r="C89" s="10">
+        <v>44377</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
+      <c r="E91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
+      <c r="E92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
+      <c r="E93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>SlNo</t>
   </si>
@@ -395,6 +395,27 @@
   </si>
   <si>
     <t>camunda discussion with team</t>
+  </si>
+  <si>
+    <t>working  on java jdbc connectivity and basic ex</t>
+  </si>
+  <si>
+    <t>camunda ex on workflow initating from java code</t>
+  </si>
+  <si>
+    <t>spring boot basics</t>
+  </si>
+  <si>
+    <t>02--07-2021</t>
+  </si>
+  <si>
+    <t>java calrification session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">went through jsp and servlet </t>
+  </si>
+  <si>
+    <t>working in java spring configurations</t>
   </si>
 </sst>
 </file>
@@ -908,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,81 +2172,137 @@
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="B94" s="2">
+        <v>26</v>
+      </c>
+      <c r="C94" s="10">
+        <v>44378</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
+      <c r="E95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
+      <c r="E96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
+      <c r="E97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="B98" s="2">
+        <v>27</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
+      <c r="E100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
+      <c r="E101" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="B102" s="2">
+        <v>28</v>
+      </c>
+      <c r="C102" s="10">
+        <v>44380</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
+      <c r="E103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
+      <c r="E104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
   <si>
     <t>SlNo</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>working in java spring configurations</t>
+  </si>
+  <si>
+    <t>spring boot task</t>
+  </si>
+  <si>
+    <t>camunda task types went through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java sat recordings </t>
   </si>
 </sst>
 </file>
@@ -929,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,32 +2314,52 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="B105" s="2">
+        <v>29</v>
+      </c>
+      <c r="C105" s="10">
+        <v>44382</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
+      <c r="E106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F106" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
+      <c r="E107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
+      <c r="E108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>

--- a/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Antony/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
   <si>
     <t>SlNo</t>
   </si>
@@ -425,6 +425,15 @@
   </si>
   <si>
     <t xml:space="preserve">java sat recordings </t>
+  </si>
+  <si>
+    <t>java exception handling clarifications</t>
+  </si>
+  <si>
+    <t>java spring boot ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learing camunda gateways </t>
   </si>
 </sst>
 </file>
@@ -938,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,32 +2371,52 @@
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="B109" s="2">
+        <v>30</v>
+      </c>
+      <c r="C109" s="10">
+        <v>44383</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="3"/>
+      <c r="E110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="3"/>
+      <c r="E111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="3"/>
+      <c r="E112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
